--- a/Survey.xlsx
+++ b/Survey.xlsx
@@ -1,59 +1,245 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Università\Main\Reverb_Parameters_Optimization\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C102575-B5A3-45E3-B61E-489A4466CDE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="9">
-  <si>
-    <t>Complexity 3</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="73">
+  <si>
+    <t>Complexity_3</t>
+  </si>
+  <si>
+    <t>3D_MARCo</t>
+  </si>
+  <si>
+    <t>Freeverb</t>
+  </si>
+  <si>
+    <t>same_room</t>
+  </si>
+  <si>
+    <t>+90-014_Mark</t>
+  </si>
+  <si>
+    <t>0-001_Bob</t>
+  </si>
+  <si>
+    <t>-90-031_George</t>
+  </si>
+  <si>
+    <t>HOA_Bin</t>
+  </si>
+  <si>
+    <t>AALBORG</t>
+  </si>
+  <si>
+    <t>+30-049_Alice</t>
+  </si>
+  <si>
+    <t>0-063_Sarah</t>
+  </si>
+  <si>
+    <t>-60-001_Bob</t>
+  </si>
+  <si>
+    <t>+30-014_Mark</t>
+  </si>
+  <si>
+    <t>0-031_George</t>
   </si>
   <si>
     <t>LIVING_ROOM</t>
   </si>
   <si>
-    <t>All same room?</t>
-  </si>
-  <si>
-    <t>AALBORG</t>
-  </si>
-  <si>
-    <t>3D_MARCo</t>
+    <t>S4-001_Bob</t>
+  </si>
+  <si>
+    <t>STV-049_Alice</t>
+  </si>
+  <si>
+    <t>S5-031_George</t>
+  </si>
+  <si>
+    <t>STV-014_Mark</t>
+  </si>
+  <si>
+    <t>S5-063_Sarah</t>
   </si>
   <si>
     <t>METU</t>
   </si>
   <si>
-    <t>Complexity 5</t>
-  </si>
-  <si>
-    <t>Complexity 2</t>
-  </si>
-  <si>
-    <t>Complexity 4</t>
+    <t>632-014_Mark</t>
+  </si>
+  <si>
+    <t>302-063_Sarah</t>
+  </si>
+  <si>
+    <t>032-031_George</t>
+  </si>
+  <si>
+    <t>632-049_Alice</t>
+  </si>
+  <si>
+    <t>302-001_Bob</t>
+  </si>
+  <si>
+    <t>032-063_Sarah</t>
+  </si>
+  <si>
+    <t>Complexity_5</t>
+  </si>
+  <si>
+    <t>511-014_Mark</t>
+  </si>
+  <si>
+    <t>302-031_George</t>
+  </si>
+  <si>
+    <t>111-063_Sarah</t>
+  </si>
+  <si>
+    <t>032-001_Bob</t>
+  </si>
+  <si>
+    <t>632-063_Sarah</t>
+  </si>
+  <si>
+    <t>511-049_Alice</t>
+  </si>
+  <si>
+    <t>111-031_George</t>
+  </si>
+  <si>
+    <t>032-014_Mark</t>
+  </si>
+  <si>
+    <t>+120-031_George</t>
+  </si>
+  <si>
+    <t>+30-001_Bob</t>
+  </si>
+  <si>
+    <t>0-049_Alice</t>
+  </si>
+  <si>
+    <t>-60-014_Mark</t>
+  </si>
+  <si>
+    <t>-150-063_Sarah</t>
+  </si>
+  <si>
+    <t>+120-063_Sarah</t>
+  </si>
+  <si>
+    <t>+30-031_George</t>
+  </si>
+  <si>
+    <t>-60-049_Alice</t>
+  </si>
+  <si>
+    <t>-150-014_Mark</t>
+  </si>
+  <si>
+    <t>SG6-031_George</t>
+  </si>
+  <si>
+    <t>SG4-049_Alice</t>
+  </si>
+  <si>
+    <t>SG6-049_Alice</t>
+  </si>
+  <si>
+    <t>S4-063_Sarah</t>
+  </si>
+  <si>
+    <t>SG4-001_Bob</t>
+  </si>
+  <si>
+    <t>-90-063_Sarah</t>
+  </si>
+  <si>
+    <t>-30-001_Bob</t>
+  </si>
+  <si>
+    <t>+90-063_Sarah</t>
+  </si>
+  <si>
+    <t>-30-014_Mark</t>
+  </si>
+  <si>
+    <t>Complexity_2</t>
+  </si>
+  <si>
+    <t>032-049_Alice</t>
+  </si>
+  <si>
+    <t>+30-063_Sarah</t>
+  </si>
+  <si>
+    <t>+90-001_Bob</t>
+  </si>
+  <si>
+    <t>+90-049_Alice</t>
+  </si>
+  <si>
+    <t>-90-001_Bob</t>
+  </si>
+  <si>
+    <t>S4-049_Alice</t>
+  </si>
+  <si>
+    <t>S5-014_Mark</t>
+  </si>
+  <si>
+    <t>Complexity_4</t>
+  </si>
+  <si>
+    <t>0-014_Mark</t>
+  </si>
+  <si>
+    <t>-60-031_George</t>
+  </si>
+  <si>
+    <t>STV-031_George</t>
+  </si>
+  <si>
+    <t>SG4-031_George</t>
+  </si>
+  <si>
+    <t>511-001_Bob</t>
+  </si>
+  <si>
+    <t>111-014_Mark</t>
+  </si>
+  <si>
+    <t>632-001_Bob</t>
+  </si>
+  <si>
+    <t>511-031_George</t>
+  </si>
+  <si>
+    <t>-30-063_Sarah</t>
+  </si>
+  <si>
+    <t>-30-031_George</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -70,12 +256,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -120,33 +312,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -188,7 +375,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -220,27 +407,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -272,24 +441,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -465,55 +616,53 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="8" width="15.7109375" customWidth="1"/>
+    <col min="1" max="8" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -523,7 +672,7 @@
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
@@ -531,158 +680,912 @@
       </c>
       <c r="H3" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E6" s="2" t="s">
-        <v>1</v>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>3</v>
+      <c r="G6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="B7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="2"/>
       <c r="E7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1"/>
+      <c r="C8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="2"/>
       <c r="G8" s="2" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
+      <c r="A9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="D9" s="2"/>
+      <c r="E9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="2"/>
       <c r="G9" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
+      <c r="A10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="2"/>
       <c r="C10" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="2" t="s">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="2"/>
       <c r="E11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="2"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F12" s="1"/>
+      <c r="G12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E14" s="2" t="s">
-        <v>5</v>
+      <c r="B14" s="1"/>
+      <c r="C14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2" t="s">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F15" s="1"/>
+    <row r="15" spans="1:8">
+      <c r="A15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="2"/>
       <c r="G15" s="1" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
+      <c r="A16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="2"/>
       <c r="C16" s="2" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="F21" s="1"/>
+      <c r="G21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="2"/>
+      <c r="G22" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="1"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G20" s="2" t="s">
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="1"/>
+      <c r="G25" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H26" s="2"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F28" s="2"/>
+      <c r="G28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H20" s="2"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G21" s="1" t="s">
+      <c r="D29" s="2"/>
+      <c r="E29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H21" s="1"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C23" s="2" t="s">
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" s="1"/>
+      <c r="G30" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H30" s="2"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F31" s="2"/>
+      <c r="G31" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H31" s="2"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H32" s="2"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="1"/>
+      <c r="E33" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H33" s="2"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F34" s="1"/>
+      <c r="G34" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H34" s="2"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F35" s="2"/>
+      <c r="G35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H35" s="1"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H36" s="2"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H37" s="2"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="G38" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H38" s="2"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="G39" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H39" s="2"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" s="1"/>
+      <c r="G40" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H40" s="2"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="G41" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H41" s="1"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="G42" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H42" s="1"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="G43" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H43" s="2"/>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="G44" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H44" s="2"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="G45" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H45" s="2"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="C46" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="G46" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H46" s="2"/>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="C47" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D47" s="1"/>
+      <c r="G47" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H47" s="2"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="C48" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D48" s="1"/>
+      <c r="G48" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H48" s="1"/>
+    </row>
+    <row r="49" spans="3:8">
+      <c r="C49" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="G49" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H49" s="2"/>
+    </row>
+    <row r="50" spans="3:8">
+      <c r="C50" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D23" s="2"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C24" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D24" s="1"/>
+      <c r="D50" s="2"/>
+      <c r="G50" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H50" s="2"/>
+    </row>
+    <row r="51" spans="3:8">
+      <c r="C51" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="G51" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H51" s="2"/>
+    </row>
+    <row r="52" spans="3:8">
+      <c r="C52" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="G52" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H52" s="2"/>
+    </row>
+    <row r="53" spans="3:8">
+      <c r="C53" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="G53" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H53" s="2"/>
+    </row>
+    <row r="54" spans="3:8">
+      <c r="C54" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D54" s="2"/>
+    </row>
+    <row r="55" spans="3:8">
+      <c r="C55" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55" s="1"/>
+    </row>
+    <row r="56" spans="3:8">
+      <c r="C56" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D56" s="2"/>
+    </row>
+    <row r="57" spans="3:8">
+      <c r="C57" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D57" s="2"/>
+    </row>
+    <row r="58" spans="3:8">
+      <c r="C58" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D58" s="2"/>
+    </row>
+    <row r="59" spans="3:8">
+      <c r="C59" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D59" s="2"/>
+    </row>
+    <row r="60" spans="3:8">
+      <c r="C60" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D60" s="2"/>
+    </row>
+    <row r="61" spans="3:8">
+      <c r="C61" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D61" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="52">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E34:F34"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G48:H48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
